--- a/E조 회의록.xlsx
+++ b/E조 회의록.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git저장소\DERA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D138E876-F04B-45D2-BDD0-469B181B5F06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF783DFB-6CC7-4FA4-8EDB-521F53844303}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56405028-5379-49DF-AE32-3F93A6C2153A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56405028-5379-49DF-AE32-3F93A6C2153A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019.09.23" sheetId="1" r:id="rId1"/>
+    <sheet name="Base" sheetId="1" r:id="rId1"/>
+    <sheet name="2019.09.23" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>장소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,26 +53,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진
-행
-사
-항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다
-음
-주
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중앙도서관 6층
 그룹스터디실 B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임정준, 배인규, 이석준, 이유겸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,12 +73,118 @@
     <t>이유겸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임정준</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 배인규, 이석준, 이유겸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다
+음
+주
+계
+획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진
+행
+사
+항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">임정준, 배인규, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이석준</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 이유겸</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 주제 선정 및 데이터 수집
+ - 폐암과 흡연율과의 상관관계
+ - 감기와 기상정보와의 상관관계(확정)
+2. 환경
+ - 파이썬 3.7.4
+ - FireBase
+ - 추가 가능
+3. 전체일정
+ - 03 주차: 주제 및 자료 조사
+ - 04 주차: 개발 환경 구축 및 OSS 조사
+ - 05 주차: 디비 구축 및 데이터 입력
+ - 06 주차: OSS 적용 및 테스트
+ - 07 주차: OSS 적용 및 테스트 , 중간발표 준비
+ - 08 주차: OSS 적용 및 테스트, 중간발표
+ - 09 주차: OSS 적용 및 테스트
+ - 10 주차: OSS 선정 및 개발 진행
+ - 11 주차: OSS 선정 및 개발 진행
+ - 12 주차: 시각화, 서류작성
+ - 13 주차: 최종 테스트, 서류작성, 최종발표 준비
+ - 14 주차: 퇴종 테스트, 서류작성, 최종발표 준비
+ - 15 주차: 최종발표
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSS 자료조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경 구상 밒 OSS 자료조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +244,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -422,45 +521,281 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,56 +803,101 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F30BCA1-F8DC-4777-BCD0-2C0F9B65EF78}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -853,38 +1233,34 @@
   <sheetData>
     <row r="1" spans="2:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -892,124 +1268,133 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="25" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="2:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="2:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:G7"/>
@@ -1019,15 +1404,218 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B812C-942D-4A6F-9B8E-20E31E243E63}">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="2:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="2:7" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="2:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D6:G13"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
